--- a/output/PACIFICO_17002861000101.xlsx
+++ b/output/PACIFICO_17002861000101.xlsx
@@ -1450,10 +1450,10 @@
         <v>44165</v>
       </c>
       <c r="B97">
-        <v>1.91009897</v>
+        <v>1.92886057</v>
       </c>
       <c r="C97">
-        <v>0.04311955449398663</v>
+        <v>0.04984461506249183</v>
       </c>
     </row>
   </sheetData>

--- a/output/PACIFICO_17002861000101.xlsx
+++ b/output/PACIFICO_17002861000101.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PACIFICO LB FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1074 +383,786 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41274</v>
       </c>
       <c r="B2">
-        <v>0.001824300000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41305</v>
       </c>
       <c r="B3">
-        <v>0.01446560000000008</v>
-      </c>
-      <c r="C3">
         <v>0.01261828047093694</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41333</v>
       </c>
       <c r="B4">
-        <v>0.01447559999999992</v>
-      </c>
-      <c r="C4">
         <v>9.857406697566518e-06</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41364</v>
       </c>
       <c r="B5">
-        <v>0.004129700000000014</v>
-      </c>
-      <c r="C5">
         <v>-0.01019827386681349</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41394</v>
       </c>
       <c r="B6">
-        <v>0.03446440000000006</v>
-      </c>
-      <c r="C6">
         <v>0.03020994200251237</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41425</v>
       </c>
       <c r="B7">
-        <v>0.01294440000000008</v>
-      </c>
-      <c r="C7">
         <v>-0.02080303585120957</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41455</v>
       </c>
       <c r="B8">
-        <v>-0.02172739999999995</v>
-      </c>
-      <c r="C8">
         <v>-0.03422872963214962</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41486</v>
       </c>
       <c r="B9">
-        <v>-0.004591699999999976</v>
-      </c>
-      <c r="C9">
         <v>0.01751628329363397</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41517</v>
       </c>
       <c r="B10">
-        <v>0.003549500000000094</v>
-      </c>
-      <c r="C10">
         <v>0.008178754386516607</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41547</v>
       </c>
       <c r="B11">
-        <v>0.03040179999999992</v>
-      </c>
-      <c r="C11">
         <v>0.02675732487535476</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41578</v>
       </c>
       <c r="B12">
-        <v>0.06425539999999996</v>
-      </c>
-      <c r="C12">
         <v>0.03285475627080614</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41608</v>
       </c>
       <c r="B13">
-        <v>0.07205989999999995</v>
-      </c>
-      <c r="C13">
         <v>0.007333296124219846</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41639</v>
       </c>
       <c r="B14">
-        <v>0.07152910000000001</v>
-      </c>
-      <c r="C14">
         <v>-0.0004951215878887805</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41670</v>
       </c>
       <c r="B15">
-        <v>0.0361895000000001</v>
-      </c>
-      <c r="C15">
         <v>-0.03298053221326414</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41698</v>
       </c>
       <c r="B16">
-        <v>0.05316509999999997</v>
-      </c>
-      <c r="C16">
         <v>0.01638271763996824</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41729</v>
       </c>
       <c r="B17">
-        <v>0.06787889999999996</v>
-      </c>
-      <c r="C17">
         <v>0.01397102885388057</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41759</v>
       </c>
       <c r="B18">
-        <v>0.07287489999999996</v>
-      </c>
-      <c r="C18">
         <v>0.004678433106974911</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41790</v>
       </c>
       <c r="B19">
-        <v>0.08941329999999992</v>
-      </c>
-      <c r="C19">
         <v>0.01541503114668807</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41820</v>
       </c>
       <c r="B20">
-        <v>0.1319824999999999</v>
-      </c>
-      <c r="C20">
         <v>0.03907534449964944</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41851</v>
       </c>
       <c r="B21">
-        <v>0.1437885000000001</v>
-      </c>
-      <c r="C21">
         <v>0.01042948985518777</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41882</v>
       </c>
       <c r="B22">
-        <v>0.2267747</v>
-      </c>
-      <c r="C22">
         <v>0.07255379818908825</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41912</v>
       </c>
       <c r="B23">
-        <v>0.1448020999999999</v>
-      </c>
-      <c r="C23">
         <v>-0.06681960428430755</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41943</v>
       </c>
       <c r="B24">
-        <v>0.1838713000000001</v>
-      </c>
-      <c r="C24">
         <v>0.03412747059076859</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41973</v>
       </c>
       <c r="B25">
-        <v>0.2356871</v>
-      </c>
-      <c r="C25">
         <v>0.04376810215772609</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42004</v>
       </c>
       <c r="B26">
-        <v>0.1913085000000001</v>
-      </c>
-      <c r="C26">
         <v>-0.03591410802945172</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42035</v>
       </c>
       <c r="B27">
-        <v>0.1428843</v>
-      </c>
-      <c r="C27">
         <v>-0.04064790942060781</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42063</v>
       </c>
       <c r="B28">
-        <v>0.1929681999999999</v>
-      </c>
-      <c r="C28">
         <v>0.04382237117090493</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42094</v>
       </c>
       <c r="B29">
-        <v>0.2080245999999999</v>
-      </c>
-      <c r="C29">
         <v>0.01262095670278551</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42124</v>
       </c>
       <c r="B30">
-        <v>0.2572483000000001</v>
-      </c>
-      <c r="C30">
         <v>0.04074726623944591</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42155</v>
       </c>
       <c r="B31">
-        <v>0.2271742999999999</v>
-      </c>
-      <c r="C31">
         <v>-0.02392049366859372</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42185</v>
       </c>
       <c r="B32">
-        <v>0.255765</v>
-      </c>
-      <c r="C32">
         <v>0.02329799442507885</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42216</v>
       </c>
       <c r="B33">
-        <v>0.2244995000000001</v>
-      </c>
-      <c r="C33">
         <v>-0.02489757239610912</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42247</v>
       </c>
       <c r="B34">
-        <v>0.1666734000000001</v>
-      </c>
-      <c r="C34">
         <v>-0.04722427408096119</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42277</v>
       </c>
       <c r="B35">
-        <v>0.1353249999999999</v>
-      </c>
-      <c r="C35">
         <v>-0.02686990206513684</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42308</v>
       </c>
       <c r="B36">
-        <v>0.164042</v>
-      </c>
-      <c r="C36">
         <v>0.02529407878801226</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42338</v>
       </c>
       <c r="B37">
-        <v>0.1627753999999999</v>
-      </c>
-      <c r="C37">
         <v>-0.001088105068373868</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42369</v>
       </c>
       <c r="B38">
-        <v>0.1451387</v>
-      </c>
-      <c r="C38">
         <v>-0.01516776154707089</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42400</v>
       </c>
       <c r="B39">
-        <v>0.1594096</v>
-      </c>
-      <c r="C39">
         <v>0.01246215851407362</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42429</v>
       </c>
       <c r="B40">
-        <v>0.166558</v>
-      </c>
-      <c r="C40">
         <v>0.006165551846387896</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42460</v>
       </c>
       <c r="B41">
-        <v>0.2478746000000001</v>
-      </c>
-      <c r="C41">
         <v>0.06970643551370781</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42490</v>
       </c>
       <c r="B42">
-        <v>0.32018806</v>
-      </c>
-      <c r="C42">
         <v>0.05794930035437851</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42521</v>
       </c>
       <c r="B43">
-        <v>0.2780864599999999</v>
-      </c>
-      <c r="C43">
         <v>-0.03189060806988364</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42551</v>
       </c>
       <c r="B44">
-        <v>0.34737522</v>
-      </c>
-      <c r="C44">
         <v>0.05421288947854119</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42582</v>
       </c>
       <c r="B45">
-        <v>0.47417588</v>
-      </c>
-      <c r="C45">
         <v>0.09410938995894558</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42613</v>
       </c>
       <c r="B46">
-        <v>0.5218924</v>
-      </c>
-      <c r="C46">
         <v>0.03236826802511517</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42643</v>
       </c>
       <c r="B47">
-        <v>0.5123326100000001</v>
-      </c>
-      <c r="C47">
         <v>-0.00628151504009089</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42674</v>
       </c>
       <c r="B48">
-        <v>0.6483694900000001</v>
-      </c>
-      <c r="C48">
         <v>0.08995169389358071</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42704</v>
       </c>
       <c r="B49">
-        <v>0.6052322299999999</v>
-      </c>
-      <c r="C49">
         <v>-0.02616965447473807</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42735</v>
       </c>
       <c r="B50">
-        <v>0.5985730499999999</v>
-      </c>
-      <c r="C50">
         <v>-0.004148421565146387</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42766</v>
       </c>
       <c r="B51">
-        <v>0.6867037499999999</v>
-      </c>
-      <c r="C51">
         <v>0.0551308556090071</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42794</v>
       </c>
       <c r="B52">
-        <v>0.72750965</v>
-      </c>
-      <c r="C52">
         <v>0.02419268943938735</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42825</v>
       </c>
       <c r="B53">
-        <v>0.7193263700000001</v>
-      </c>
-      <c r="C53">
         <v>-0.004737038661404847</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42855</v>
       </c>
       <c r="B54">
-        <v>0.7386386</v>
-      </c>
-      <c r="C54">
         <v>0.01123243983049016</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42886</v>
       </c>
       <c r="B55">
-        <v>0.70429849</v>
-      </c>
-      <c r="C55">
         <v>-0.01975114897368557</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42916</v>
       </c>
       <c r="B56">
-        <v>0.70371962</v>
-      </c>
-      <c r="C56">
         <v>-0.0003396529442445395</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42947</v>
       </c>
       <c r="B57">
-        <v>0.7377751800000001</v>
-      </c>
-      <c r="C57">
         <v>0.01998894630326564</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42978</v>
       </c>
       <c r="B58">
-        <v>0.8443449700000001</v>
-      </c>
-      <c r="C58">
         <v>0.0613254184007852</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43008</v>
       </c>
       <c r="B59">
-        <v>0.90973948</v>
-      </c>
-      <c r="C59">
         <v>0.0354567670710757</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43039</v>
       </c>
       <c r="B60">
-        <v>0.9017889800000001</v>
-      </c>
-      <c r="C60">
         <v>-0.004163133287688026</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43069</v>
       </c>
       <c r="B61">
-        <v>0.86588803</v>
-      </c>
-      <c r="C61">
         <v>-0.0188774624196214</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43100</v>
       </c>
       <c r="B62">
-        <v>0.9336810900000001</v>
-      </c>
-      <c r="C62">
         <v>0.03633286612594855</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43131</v>
       </c>
       <c r="B63">
-        <v>1.08077219</v>
-      </c>
-      <c r="C63">
         <v>0.07606792079659819</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43159</v>
       </c>
       <c r="B64">
-        <v>1.12235708</v>
-      </c>
-      <c r="C64">
         <v>0.01998531612439525</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43190</v>
       </c>
       <c r="B65">
-        <v>1.11485392</v>
-      </c>
-      <c r="C65">
         <v>-0.003535295766535329</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43220</v>
       </c>
       <c r="B66">
-        <v>1.10004428</v>
-      </c>
-      <c r="C66">
         <v>-0.007002677518265554</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43251</v>
       </c>
       <c r="B67">
-        <v>0.9359718800000001</v>
-      </c>
-      <c r="C67">
         <v>-0.07812806689961793</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43281</v>
       </c>
       <c r="B68">
-        <v>0.8317627400000001</v>
-      </c>
-      <c r="C68">
         <v>-0.05382781696188688</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43312</v>
       </c>
       <c r="B69">
-        <v>0.9616408000000001</v>
-      </c>
-      <c r="C69">
         <v>0.07090332015378809</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43343</v>
       </c>
       <c r="B70">
-        <v>0.9100043900000001</v>
-      </c>
-      <c r="C70">
         <v>-0.02632307097201481</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43373</v>
       </c>
       <c r="B71">
-        <v>0.93734574</v>
-      </c>
-      <c r="C71">
         <v>0.01431481003035806</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43404</v>
       </c>
       <c r="B72">
-        <v>1.16454199</v>
-      </c>
-      <c r="C72">
         <v>0.1172719176082633</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43434</v>
       </c>
       <c r="B73">
-        <v>1.18437018</v>
-      </c>
-      <c r="C73">
         <v>0.009160455233303333</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43465</v>
       </c>
       <c r="B74">
-        <v>1.18790616</v>
-      </c>
-      <c r="C74">
         <v>0.00161876408695516</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43496</v>
       </c>
       <c r="B75">
-        <v>1.31461215</v>
-      </c>
-      <c r="C75">
         <v>0.05791198558534161</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43524</v>
       </c>
       <c r="B76">
-        <v>1.28427268</v>
-      </c>
-      <c r="C76">
         <v>-0.01310779864350053</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43555</v>
       </c>
       <c r="B77">
-        <v>1.26198401</v>
-      </c>
-      <c r="C77">
         <v>-0.00975744717132454</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43585</v>
       </c>
       <c r="B78">
-        <v>1.31261794</v>
-      </c>
-      <c r="C78">
         <v>0.02238474267552415</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43616</v>
       </c>
       <c r="B79">
-        <v>1.33689342</v>
-      </c>
-      <c r="C79">
         <v>0.01049696950807189</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43646</v>
       </c>
       <c r="B80">
-        <v>1.43845656</v>
-      </c>
-      <c r="C80">
         <v>0.04346074969906</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43677</v>
       </c>
       <c r="B81">
-        <v>1.58198492</v>
-      </c>
-      <c r="C81">
         <v>0.05886033089718024</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43708</v>
       </c>
       <c r="B82">
-        <v>1.60052926</v>
-      </c>
-      <c r="C82">
         <v>0.007182203062595649</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43738</v>
       </c>
       <c r="B83">
-        <v>1.63972906</v>
-      </c>
-      <c r="C83">
         <v>0.01507377771246454</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43769</v>
       </c>
       <c r="B84">
-        <v>1.72321829</v>
-      </c>
-      <c r="C84">
         <v>0.03162795427194331</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43799</v>
       </c>
       <c r="B85">
-        <v>1.78116546</v>
-      </c>
-      <c r="C85">
         <v>0.02127892949778909</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43830</v>
       </c>
       <c r="B86">
-        <v>1.98820225</v>
-      </c>
-      <c r="C86">
         <v>0.07444245694033613</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43861</v>
       </c>
       <c r="B87">
-        <v>2.05998056</v>
-      </c>
-      <c r="C87">
         <v>0.02402056621167459</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43890</v>
       </c>
       <c r="B88">
-        <v>1.83894794</v>
-      </c>
-      <c r="C88">
         <v>-0.07223334124710912</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43921</v>
       </c>
       <c r="B89">
-        <v>0.9715875700000001</v>
-      </c>
-      <c r="C89">
         <v>-0.3055217595853483</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43951</v>
       </c>
       <c r="B90">
-        <v>1.19983121</v>
-      </c>
-      <c r="C90">
         <v>0.1157664226905224</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43982</v>
       </c>
       <c r="B91">
-        <v>1.44366387</v>
-      </c>
-      <c r="C91">
         <v>0.1108415313373066</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>44012</v>
       </c>
       <c r="B92">
-        <v>1.64907767</v>
-      </c>
-      <c r="C92">
         <v>0.08405976064130294</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>44043</v>
       </c>
       <c r="B93">
-        <v>1.92054711</v>
-      </c>
-      <c r="C93">
         <v>0.1024769651242425</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>44074</v>
       </c>
       <c r="B94">
-        <v>1.90835623</v>
-      </c>
-      <c r="C94">
         <v>-0.004174176803468876</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>44104</v>
       </c>
       <c r="B95">
-        <v>1.81729848</v>
-      </c>
-      <c r="C95">
         <v>-0.0313090085254103</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>44135</v>
       </c>
       <c r="B96">
-        <v>1.78980387</v>
-      </c>
-      <c r="C96">
         <v>-0.009759210887729464</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>44165</v>
       </c>
       <c r="B97">
-        <v>1.92886057</v>
-      </c>
-      <c r="C97">
-        <v>0.04984461506249183</v>
+        <v>0.03366089674253692</v>
       </c>
     </row>
   </sheetData>
